--- a/Receita Liquida CVCB3.xlsx
+++ b/Receita Liquida CVCB3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellauvrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F39DD5D-E292-5E4F-BA99-2B1BFC46354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCA2F0-0E8D-CE4A-9896-1E90276E33BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17140" xr2:uid="{2A3C1A59-8807-0B4B-9632-C75979C85CA7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>1T20</t>
   </si>
@@ -108,17 +108,22 @@
   </si>
   <si>
     <t>Receita</t>
+  </si>
+  <si>
+    <t>3T19</t>
+  </si>
+  <si>
+    <t>4T19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,35 +142,16 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF298CED"/>
-      <name val="Segoe UI"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -189,14 +175,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -533,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC0CFF-4030-9B46-BE51-CC0E151FB833}">
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,179 +535,195 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>414.8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>265.10000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C4" s="3">
         <v>289.60000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="3">
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="3">
         <v>165.9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="3">
         <v>115.5</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="3">
         <v>230.4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="3">
         <v>292.8</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="3">
         <v>269.7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="3">
         <v>337.6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C15" s="3">
         <v>321.39999999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="3">
         <v>295.5</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="3">
         <v>269.35700000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="3">
         <v>375.83824480356247</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="3">
         <v>352.24628715989599</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="3">
         <v>317.35410196326967</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="3">
         <v>294.02237340953673</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="3">
         <v>363.81348157635279</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C23" s="3">
         <v>366.41134456999987</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C24" s="3">
         <v>362.2</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="3">
         <v>341.80872406186722</v>
       </c>
     </row>

--- a/Receita Liquida CVCB3.xlsx
+++ b/Receita Liquida CVCB3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellauvrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCA2F0-0E8D-CE4A-9896-1E90276E33BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC8F40-EA32-FE42-A099-A216F35681C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17140" xr2:uid="{2A3C1A59-8807-0B4B-9632-C75979C85CA7}"/>
   </bookViews>
@@ -175,10 +175,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,211 +519,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC0CFF-4030-9B46-BE51-CC0E151FB833}">
-  <dimension ref="B1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>414.8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
         <v>265.10000000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
         <v>289.60000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>162.80000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
         <v>165.9</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>115.5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
         <v>230.4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>292.8</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
         <v>269.7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
         <v>337.6</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
         <v>321.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
         <v>295.5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3">
+      <c r="B17" s="3">
         <v>269.35700000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3">
+      <c r="B18" s="3">
         <v>375.83824480356247</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
         <v>352.24628715989599</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3">
         <v>317.35410196326967</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
         <v>294.02237340953673</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
         <v>363.81348157635279</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
         <v>366.41134456999987</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="3">
+      <c r="B24" s="3">
         <v>362.2</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3">
+      <c r="B25" s="3">
         <v>341.80872406186722</v>
       </c>
     </row>
